--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H2">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I2">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J2">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N2">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q2">
-        <v>160.6732171319438</v>
+        <v>799.2761847051082</v>
       </c>
       <c r="R2">
-        <v>160.6732171319438</v>
+        <v>7193.485662345973</v>
       </c>
       <c r="S2">
-        <v>0.05266833021124687</v>
+        <v>0.1624183622026878</v>
       </c>
       <c r="T2">
-        <v>0.05266833021124687</v>
+        <v>0.1624183622026878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H3">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I3">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J3">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N3">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q3">
-        <v>552.3667433498174</v>
+        <v>658.9233636167701</v>
       </c>
       <c r="R3">
-        <v>552.3667433498174</v>
+        <v>5930.310272550931</v>
       </c>
       <c r="S3">
-        <v>0.1810646139771314</v>
+        <v>0.1338977134358222</v>
       </c>
       <c r="T3">
-        <v>0.1810646139771314</v>
+        <v>0.1338977134358222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H4">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I4">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J4">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N4">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q4">
-        <v>444.5169964046223</v>
+        <v>587.4155636239202</v>
       </c>
       <c r="R4">
-        <v>444.5169964046223</v>
+        <v>5286.740072615281</v>
       </c>
       <c r="S4">
-        <v>0.1457117021060488</v>
+        <v>0.1193668416523209</v>
       </c>
       <c r="T4">
-        <v>0.1457117021060488</v>
+        <v>0.1193668416523209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H5">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J5">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N5">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q5">
-        <v>155.9574192831174</v>
+        <v>655.0588067335987</v>
       </c>
       <c r="R5">
-        <v>155.9574192831174</v>
+        <v>5895.529260602388</v>
       </c>
       <c r="S5">
-        <v>0.0511225019596876</v>
+        <v>0.1331124091672665</v>
       </c>
       <c r="T5">
-        <v>0.0511225019596876</v>
+        <v>0.1331124091672665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H6">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J6">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N6">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q6">
-        <v>536.1546456116287</v>
+        <v>540.0305433333299</v>
       </c>
       <c r="R6">
-        <v>536.1546456116287</v>
+        <v>4860.27488999997</v>
       </c>
       <c r="S6">
-        <v>0.1757503236907127</v>
+        <v>0.109737882932153</v>
       </c>
       <c r="T6">
-        <v>0.1757503236907127</v>
+        <v>0.109737882932153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H7">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J7">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N7">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q7">
-        <v>431.4703148678342</v>
+        <v>481.42525140568</v>
       </c>
       <c r="R7">
-        <v>431.4703148678342</v>
+        <v>4332.82726265112</v>
       </c>
       <c r="S7">
-        <v>0.141435028347931</v>
+        <v>0.09782888862774849</v>
       </c>
       <c r="T7">
-        <v>0.141435028347931</v>
+        <v>0.09782888862774848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H8">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N8">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q8">
-        <v>106.8124631280292</v>
+        <v>468.4675858582036</v>
       </c>
       <c r="R8">
-        <v>106.8124631280292</v>
+        <v>4216.208272723832</v>
       </c>
       <c r="S8">
-        <v>0.03501289249772063</v>
+        <v>0.09519580277274108</v>
       </c>
       <c r="T8">
-        <v>0.03501289249772063</v>
+        <v>0.09519580277274106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H9">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N9">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q9">
-        <v>367.2027825194526</v>
+        <v>386.20472288062</v>
       </c>
       <c r="R9">
-        <v>367.2027825194526</v>
+        <v>3475.84250592558</v>
       </c>
       <c r="S9">
-        <v>0.1203682713861474</v>
+        <v>0.07847942897029533</v>
       </c>
       <c r="T9">
-        <v>0.1203682713861474</v>
+        <v>0.07847942897029535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H10">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N10">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q10">
-        <v>295.5063459597052</v>
+        <v>344.2929443568534</v>
       </c>
       <c r="R10">
-        <v>295.5063459597052</v>
+        <v>3098.636499211681</v>
       </c>
       <c r="S10">
-        <v>0.0968663358233737</v>
+        <v>0.06996267023896459</v>
       </c>
       <c r="T10">
-        <v>0.0968663358233737</v>
+        <v>0.06996267023896459</v>
       </c>
     </row>
   </sheetData>
